--- a/nr-add-ruim-note/ig/StructureDefinition-FrIsVehicle.xlsx
+++ b/nr-add-ruim-note/ig/StructureDefinition-FrIsVehicle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T13:12:16+00:00</t>
+    <t>2024-12-23T13:13:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
